--- a/q_and_format.xlsx
+++ b/q_and_format.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\SPIT\SEM 3\Projects\App\quizbuddy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCCA984-9A24-4BF3-805E-8A5821C8022A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5616DBD5-124A-4313-A9AE-12DA0C83A0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{10CB7517-CFB0-46F6-B67E-11AE02B457A0}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -540,10 +540,10 @@
         <v>12</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -572,7 +572,7 @@
         <v>12</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <v>1</v>
